--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +545,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +587,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -661,6 +671,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,6 +713,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -741,6 +753,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,6 +793,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +833,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,6 +873,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,6 +913,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -936,6 +953,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -975,6 +993,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1014,6 +1033,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1053,6 +1073,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,6 +1113,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,6 +1153,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,6 +1193,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,6 +1233,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,6 +1273,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,6 +1313,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,6 +1353,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1365,6 +1393,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,6 +1433,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,6 +1473,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1482,6 +1513,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1521,6 +1553,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,6 +1593,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,6 +1633,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,6 +1673,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1677,6 +1713,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1716,6 +1753,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1755,6 +1793,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1794,6 +1833,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,6 +1873,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,6 +1913,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1911,6 +1953,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,6 +1993,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1989,6 +2033,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2028,6 +2073,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2067,6 +2113,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,16 +2141,17 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,18 +2181,15 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,18 +2217,15 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2211,18 +2253,15 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2254,12 +2293,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2287,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2295,6 +2333,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,6 +2369,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2365,6 +2405,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,6 +2441,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2435,6 +2477,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2462,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2470,6 +2513,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2497,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2505,6 +2549,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2532,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2540,6 +2585,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2567,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2575,6 +2621,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2602,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2610,6 +2657,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2645,6 +2693,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,6 +2729,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2715,6 +2765,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2742,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2750,6 +2801,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2785,6 +2837,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2820,6 +2873,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2855,6 +2909,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2890,6 +2945,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2925,6 +2981,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2960,6 +3017,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,6 +3053,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3030,6 +3089,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3065,6 +3125,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3100,6 +3161,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3141,6 +3203,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3182,6 +3245,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3223,6 +3287,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3264,6 +3329,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3303,6 +3369,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3342,6 +3409,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3381,6 +3449,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3422,6 +3491,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3463,6 +3533,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3504,6 +3575,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3543,6 +3615,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3582,6 +3655,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3621,6 +3695,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3660,6 +3735,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3699,6 +3775,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3738,6 +3815,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3777,6 +3855,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3816,6 +3895,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3855,6 +3935,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3894,6 +3975,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3933,6 +4015,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3972,6 +4055,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4011,6 +4095,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4050,6 +4135,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4089,6 +4175,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4128,6 +4215,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4167,6 +4255,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4206,6 +4295,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4233,17 +4323,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1.0765625</v>
       </c>
     </row>
     <row r="102">
@@ -4276,12 +4367,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4317,6 +4407,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4352,6 +4443,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4387,6 +4479,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4422,6 +4515,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>128.5</v>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>129.4</v>
       </c>
       <c r="D2" t="n">
-        <v>130</v>
+        <v>129.4</v>
       </c>
       <c r="E2" t="n">
-        <v>130</v>
+        <v>128.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1782.4231</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>72652.21703895666</v>
+        <v>31720.2516204578</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="D3" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3" t="n">
-        <v>7302.6391</v>
+        <v>1011</v>
       </c>
       <c r="G3" t="n">
-        <v>72652.21703895666</v>
+        <v>32731.2516204578</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
-        <v>128.2</v>
+        <v>132</v>
       </c>
       <c r="F4" t="n">
-        <v>20969.8251</v>
+        <v>73</v>
       </c>
       <c r="G4" t="n">
-        <v>72652.21703895666</v>
+        <v>32804.2516204578</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>130</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -552,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>129.9</v>
+        <v>131.9</v>
       </c>
       <c r="C5" t="n">
-        <v>129.9</v>
+        <v>131.9</v>
       </c>
       <c r="D5" t="n">
-        <v>129.9</v>
+        <v>131.9</v>
       </c>
       <c r="E5" t="n">
-        <v>129.9</v>
+        <v>131.9</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>10.00758150113723</v>
       </c>
       <c r="G5" t="n">
-        <v>72633.21703895666</v>
+        <v>32794.24403895666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>130</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>130.4</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>130.4</v>
+        <v>136.1</v>
       </c>
       <c r="D6" t="n">
-        <v>130.4</v>
+        <v>136.1</v>
       </c>
       <c r="E6" t="n">
-        <v>130.4</v>
+        <v>130.1</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>3666.7639</v>
       </c>
       <c r="G6" t="n">
-        <v>72833.21703895666</v>
+        <v>36461.00793895666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>129.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130.4</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4</v>
+        <v>130</v>
       </c>
       <c r="F7" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G7" t="n">
-        <v>72833.21703895666</v>
+        <v>35864.00793895666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>130.4</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -678,38 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="D8" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="F8" t="n">
-        <v>15462.7195</v>
+        <v>39.0439</v>
       </c>
       <c r="G8" t="n">
-        <v>88295.93653895665</v>
+        <v>35903.05183895666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>130.4</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
-        <v>132.9</v>
+        <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>132.9</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="F9" t="n">
-        <v>845</v>
+        <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>89140.93653895665</v>
+        <v>35703.05183895666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -745,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -760,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>132.2</v>
+        <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>132.2</v>
+        <v>130.1</v>
       </c>
       <c r="D10" t="n">
-        <v>132.2</v>
+        <v>131.2</v>
       </c>
       <c r="E10" t="n">
-        <v>132.2</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="G10" t="n">
-        <v>88860.93653895665</v>
+        <v>36303.05183895666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -785,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -800,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131.2</v>
+        <v>130.1</v>
       </c>
       <c r="C11" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="D11" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
-        <v>131.2</v>
+        <v>130.1</v>
       </c>
       <c r="F11" t="n">
-        <v>2622.3418</v>
+        <v>427</v>
       </c>
       <c r="G11" t="n">
-        <v>86238.59473895666</v>
+        <v>36730.05183895666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -825,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,36 +798,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131.2</v>
+        <v>131.1</v>
       </c>
       <c r="C12" t="n">
-        <v>131.2</v>
+        <v>131.1</v>
       </c>
       <c r="D12" t="n">
-        <v>131.2</v>
+        <v>131.1</v>
       </c>
       <c r="E12" t="n">
-        <v>131.2</v>
+        <v>131.1</v>
       </c>
       <c r="F12" t="n">
-        <v>3200</v>
+        <v>195.7525</v>
       </c>
       <c r="G12" t="n">
-        <v>86238.59473895666</v>
+        <v>36925.80433895666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="n">
+        <v>131</v>
+      </c>
+      <c r="K12" t="n">
+        <v>131</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -880,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131.2</v>
+        <v>132</v>
       </c>
       <c r="C13" t="n">
         <v>131.2</v>
@@ -892,22 +850,26 @@
         <v>131.2</v>
       </c>
       <c r="F13" t="n">
-        <v>13844.31</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>86238.59473895666</v>
+        <v>37325.80433895666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>131</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -920,34 +882,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>131</v>
+      </c>
+      <c r="E14" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>208.9203</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37116.88403895666</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>131.2</v>
       </c>
-      <c r="C14" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5530.37</v>
-      </c>
-      <c r="G14" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>131</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -960,31 +926,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="C15" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="D15" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="E15" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1502.9999</v>
+        <v>2850</v>
       </c>
       <c r="G15" t="n">
-        <v>86238.59473895666</v>
+        <v>34266.88403895666</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>131</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1000,31 +970,35 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="C16" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="D16" t="n">
-        <v>131.2</v>
+        <v>132.8</v>
       </c>
       <c r="E16" t="n">
-        <v>131.2</v>
+        <v>129.8</v>
       </c>
       <c r="F16" t="n">
-        <v>169.9304</v>
+        <v>4081.0236</v>
       </c>
       <c r="G16" t="n">
-        <v>86238.59473895666</v>
+        <v>38347.90763895666</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>131</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1040,31 +1014,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>131.2</v>
+        <v>130.2</v>
       </c>
       <c r="C17" t="n">
-        <v>131.2</v>
+        <v>128.1</v>
       </c>
       <c r="D17" t="n">
-        <v>131.2</v>
+        <v>130.2</v>
       </c>
       <c r="E17" t="n">
-        <v>131.2</v>
+        <v>128.1</v>
       </c>
       <c r="F17" t="n">
-        <v>836.3908</v>
+        <v>9290.213400000001</v>
       </c>
       <c r="G17" t="n">
-        <v>86238.59473895666</v>
+        <v>29057.69423895666</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>131</v>
+      </c>
+      <c r="K17" t="n">
+        <v>131</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,31 +1058,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>131.1</v>
+        <v>129</v>
       </c>
       <c r="C18" t="n">
-        <v>131.1</v>
+        <v>129</v>
       </c>
       <c r="D18" t="n">
-        <v>131.1</v>
+        <v>129</v>
       </c>
       <c r="E18" t="n">
-        <v>131.1</v>
+        <v>129</v>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>38728.5234</v>
       </c>
       <c r="G18" t="n">
-        <v>86148.59473895666</v>
+        <v>67786.21763895666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>131</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,22 +1102,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>129.1</v>
+        <v>129</v>
       </c>
       <c r="C19" t="n">
-        <v>130.7</v>
+        <v>129</v>
       </c>
       <c r="D19" t="n">
-        <v>130.7</v>
+        <v>133</v>
       </c>
       <c r="E19" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" t="n">
-        <v>23038.3976</v>
+        <v>2530.7879</v>
       </c>
       <c r="G19" t="n">
-        <v>63110.19713895666</v>
+        <v>67786.21763895666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1144,7 +1126,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>131</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1160,22 +1144,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="C20" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="D20" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="F20" t="n">
-        <v>4958.0508</v>
+        <v>200</v>
       </c>
       <c r="G20" t="n">
-        <v>58152.14633895666</v>
+        <v>67986.21763895666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1184,7 +1168,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>131</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,22 +1186,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>130.5</v>
+        <v>129</v>
       </c>
       <c r="C21" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="D21" t="n">
-        <v>130.6</v>
+        <v>129.9</v>
       </c>
       <c r="E21" t="n">
-        <v>130.5</v>
+        <v>129</v>
       </c>
       <c r="F21" t="n">
-        <v>1195.6036</v>
+        <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>58152.14633895666</v>
+        <v>67986.21763895666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1224,7 +1210,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>131</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,31 +1228,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="C22" t="n">
-        <v>130.8</v>
+        <v>130.5</v>
       </c>
       <c r="D22" t="n">
-        <v>130.8</v>
+        <v>130.5</v>
       </c>
       <c r="E22" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="F22" t="n">
-        <v>681.1088999999999</v>
+        <v>200</v>
       </c>
       <c r="G22" t="n">
-        <v>58833.25523895666</v>
+        <v>68186.21763895666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>131</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1283,19 +1275,19 @@
         <v>130.7</v>
       </c>
       <c r="C23" t="n">
-        <v>130.9</v>
+        <v>130.5</v>
       </c>
       <c r="D23" t="n">
-        <v>130.9</v>
+        <v>130.7</v>
       </c>
       <c r="E23" t="n">
-        <v>130.7</v>
+        <v>130.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1147.2901</v>
+        <v>1414</v>
       </c>
       <c r="G23" t="n">
-        <v>59980.54533895666</v>
+        <v>68186.21763895666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1304,7 +1296,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>131</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1320,22 +1314,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>130.8</v>
+        <v>130.7</v>
       </c>
       <c r="C24" t="n">
-        <v>130.4</v>
+        <v>130.7</v>
       </c>
       <c r="D24" t="n">
-        <v>130.8</v>
+        <v>130.7</v>
       </c>
       <c r="E24" t="n">
-        <v>130.4</v>
+        <v>130.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1713.2211</v>
+        <v>3946</v>
       </c>
       <c r="G24" t="n">
-        <v>58267.32423895666</v>
+        <v>72132.21763895666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1344,7 +1338,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>131</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1360,22 +1356,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>130.8</v>
+        <v>131</v>
       </c>
       <c r="C25" t="n">
-        <v>130.8</v>
+        <v>131</v>
       </c>
       <c r="D25" t="n">
-        <v>130.8</v>
+        <v>131</v>
       </c>
       <c r="E25" t="n">
-        <v>130.8</v>
+        <v>131</v>
       </c>
       <c r="F25" t="n">
-        <v>1410.3886</v>
+        <v>63.868</v>
       </c>
       <c r="G25" t="n">
-        <v>59677.71283895666</v>
+        <v>72196.08563895666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1384,7 +1380,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>131</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1400,22 +1398,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>130.9</v>
+        <v>129</v>
       </c>
       <c r="C26" t="n">
-        <v>130.9</v>
+        <v>129</v>
       </c>
       <c r="D26" t="n">
-        <v>130.9</v>
+        <v>129</v>
       </c>
       <c r="E26" t="n">
-        <v>130.9</v>
+        <v>129</v>
       </c>
       <c r="F26" t="n">
-        <v>989.2967</v>
+        <v>63</v>
       </c>
       <c r="G26" t="n">
-        <v>60667.00953895666</v>
+        <v>72133.08563895666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1424,7 +1422,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>131</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,22 +1440,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>130.9</v>
+        <v>129.2</v>
       </c>
       <c r="C27" t="n">
-        <v>130.9</v>
+        <v>129.2</v>
       </c>
       <c r="D27" t="n">
-        <v>130.9</v>
+        <v>129.2</v>
       </c>
       <c r="E27" t="n">
-        <v>130.9</v>
+        <v>129.2</v>
       </c>
       <c r="F27" t="n">
-        <v>2442.3057</v>
+        <v>438.1314</v>
       </c>
       <c r="G27" t="n">
-        <v>60667.00953895666</v>
+        <v>72571.21703895666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1464,7 +1464,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>131</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1480,22 +1482,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F28" t="n">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="G28" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1504,7 +1506,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>131</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,22 +1524,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C29" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D29" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="E29" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F29" t="n">
-        <v>297.9999</v>
+        <v>2434.4831</v>
       </c>
       <c r="G29" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1544,7 +1548,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>131</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,22 +1566,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C30" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D30" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="E30" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F30" t="n">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="G30" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1584,7 +1590,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>131</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,31 +1608,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C31" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D31" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="E31" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F31" t="n">
-        <v>318</v>
+        <v>1782.4231</v>
       </c>
       <c r="G31" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>130</v>
+      </c>
+      <c r="K31" t="n">
+        <v>131</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,31 +1652,35 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C32" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D32" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="E32" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="F32" t="n">
-        <v>1381.9342</v>
+        <v>7302.6391</v>
       </c>
       <c r="G32" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>130</v>
+      </c>
+      <c r="K32" t="n">
+        <v>131</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,22 +1696,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="C33" t="n">
-        <v>130.9</v>
+        <v>130</v>
       </c>
       <c r="D33" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" t="n">
-        <v>130.8</v>
+        <v>128.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2560</v>
+        <v>20969.8251</v>
       </c>
       <c r="G33" t="n">
-        <v>60667.00953895666</v>
+        <v>72652.21703895666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1704,7 +1720,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>131</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,22 +1738,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>130.9</v>
+        <v>129.9</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9</v>
+        <v>129.9</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>129.9</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9</v>
+        <v>129.9</v>
       </c>
       <c r="F34" t="n">
-        <v>3487.8555</v>
+        <v>19</v>
       </c>
       <c r="G34" t="n">
-        <v>60667.00953895666</v>
+        <v>72633.21703895666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1744,7 +1762,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>131</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,31 +1780,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="C35" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="D35" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="E35" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1741</v>
+        <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>60667.00953895666</v>
+        <v>72833.21703895666</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>131</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,22 +1824,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="C36" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="D36" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="E36" t="n">
-        <v>130.9</v>
+        <v>130.4</v>
       </c>
       <c r="F36" t="n">
-        <v>520.1559999999999</v>
+        <v>600</v>
       </c>
       <c r="G36" t="n">
-        <v>60667.00953895666</v>
+        <v>72833.21703895666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1824,7 +1848,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>131</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,22 +1866,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>131</v>
+        <v>131.2</v>
       </c>
       <c r="C37" t="n">
-        <v>131.5</v>
+        <v>131.2</v>
       </c>
       <c r="D37" t="n">
-        <v>131.5</v>
+        <v>131.2</v>
       </c>
       <c r="E37" t="n">
-        <v>131</v>
+        <v>131.2</v>
       </c>
       <c r="F37" t="n">
-        <v>11678.8302</v>
+        <v>15462.7195</v>
       </c>
       <c r="G37" t="n">
-        <v>72345.83973895665</v>
+        <v>88295.93653895665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1864,7 +1890,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>131</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,22 +1908,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>130.8</v>
+        <v>132.5</v>
       </c>
       <c r="C38" t="n">
-        <v>130.8</v>
+        <v>132.9</v>
       </c>
       <c r="D38" t="n">
-        <v>130.8</v>
+        <v>132.9</v>
       </c>
       <c r="E38" t="n">
-        <v>130.8</v>
+        <v>132.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1423</v>
+        <v>845</v>
       </c>
       <c r="G38" t="n">
-        <v>70922.83973895665</v>
+        <v>89140.93653895665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1904,7 +1932,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>131</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,22 +1950,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>130.9</v>
+        <v>132.2</v>
       </c>
       <c r="C39" t="n">
-        <v>130.9</v>
+        <v>132.2</v>
       </c>
       <c r="D39" t="n">
-        <v>130.9</v>
+        <v>132.2</v>
       </c>
       <c r="E39" t="n">
-        <v>130.9</v>
+        <v>132.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2698.4998</v>
+        <v>280</v>
       </c>
       <c r="G39" t="n">
-        <v>73621.33953895666</v>
+        <v>88860.93653895665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1944,7 +1974,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>131</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,22 +1992,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>130.8</v>
+        <v>131.2</v>
       </c>
       <c r="C40" t="n">
-        <v>130.8</v>
+        <v>131.2</v>
       </c>
       <c r="D40" t="n">
-        <v>130.8</v>
+        <v>131.2</v>
       </c>
       <c r="E40" t="n">
-        <v>130.8</v>
+        <v>131.2</v>
       </c>
       <c r="F40" t="n">
-        <v>18.7178</v>
+        <v>2622.3418</v>
       </c>
       <c r="G40" t="n">
-        <v>73602.62173895666</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1984,7 +2016,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>131</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,22 +2034,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>130.9</v>
+        <v>131.2</v>
       </c>
       <c r="C41" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="D41" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="E41" t="n">
-        <v>130.9</v>
+        <v>131.2</v>
       </c>
       <c r="F41" t="n">
-        <v>377.1131</v>
+        <v>3200</v>
       </c>
       <c r="G41" t="n">
-        <v>73979.73483895666</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2024,7 +2058,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>131</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,22 +2076,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="C42" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="D42" t="n">
-        <v>131.4</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="F42" t="n">
-        <v>1913.574</v>
+        <v>13844.31</v>
       </c>
       <c r="G42" t="n">
-        <v>73979.73483895666</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2064,7 +2100,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>131</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,22 +2118,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="C43" t="n">
-        <v>133</v>
+        <v>131.2</v>
       </c>
       <c r="D43" t="n">
-        <v>137.8</v>
+        <v>131.2</v>
       </c>
       <c r="E43" t="n">
-        <v>131.4</v>
+        <v>131.2</v>
       </c>
       <c r="F43" t="n">
-        <v>7683.7774</v>
+        <v>5530.37</v>
       </c>
       <c r="G43" t="n">
-        <v>81663.51223895667</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2104,7 +2142,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>131</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,72 +2160,80 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>133</v>
+        <v>131.2</v>
       </c>
       <c r="C44" t="n">
-        <v>133</v>
+        <v>131.2</v>
       </c>
       <c r="D44" t="n">
-        <v>133</v>
+        <v>131.2</v>
       </c>
       <c r="E44" t="n">
-        <v>133</v>
+        <v>131.2</v>
       </c>
       <c r="F44" t="n">
-        <v>503.3473</v>
+        <v>1502.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>81663.51223895667</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>131</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="C45" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="D45" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="E45" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="F45" t="n">
-        <v>2583.3514</v>
+        <v>169.9304</v>
       </c>
       <c r="G45" t="n">
-        <v>79080.16083895667</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>131</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2196,32 +2244,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="C46" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="E46" t="n">
-        <v>132.1</v>
+        <v>131.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1826.4118</v>
+        <v>836.3908</v>
       </c>
       <c r="G46" t="n">
-        <v>79080.16083895667</v>
+        <v>86238.59473895666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>131</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2232,32 +2286,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>133.1</v>
+        <v>131.1</v>
       </c>
       <c r="C47" t="n">
-        <v>133.1</v>
+        <v>131.1</v>
       </c>
       <c r="D47" t="n">
-        <v>133.1</v>
+        <v>131.1</v>
       </c>
       <c r="E47" t="n">
-        <v>133.1</v>
+        <v>131.1</v>
       </c>
       <c r="F47" t="n">
-        <v>932.8915</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
-        <v>80013.05233895667</v>
+        <v>86148.59473895666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>131</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2268,32 +2328,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>132.3</v>
+        <v>129.1</v>
       </c>
       <c r="C48" t="n">
-        <v>132.3</v>
+        <v>130.7</v>
       </c>
       <c r="D48" t="n">
-        <v>132.3</v>
+        <v>130.7</v>
       </c>
       <c r="E48" t="n">
-        <v>132.3</v>
+        <v>128</v>
       </c>
       <c r="F48" t="n">
-        <v>942.2826</v>
+        <v>23038.3976</v>
       </c>
       <c r="G48" t="n">
-        <v>79070.76973895666</v>
+        <v>63110.19713895666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>131</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2304,32 +2370,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>133.3</v>
+        <v>130.6</v>
       </c>
       <c r="C49" t="n">
-        <v>133.3</v>
+        <v>130.6</v>
       </c>
       <c r="D49" t="n">
-        <v>133.3</v>
+        <v>130.6</v>
       </c>
       <c r="E49" t="n">
-        <v>133.3</v>
+        <v>130.6</v>
       </c>
       <c r="F49" t="n">
-        <v>73</v>
+        <v>4958.0508</v>
       </c>
       <c r="G49" t="n">
-        <v>79143.76973895666</v>
+        <v>58152.14633895666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>131</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2340,32 +2412,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>132.5</v>
+        <v>130.5</v>
       </c>
       <c r="C50" t="n">
-        <v>132.5</v>
+        <v>130.6</v>
       </c>
       <c r="D50" t="n">
-        <v>133.5</v>
+        <v>130.6</v>
       </c>
       <c r="E50" t="n">
-        <v>132.5</v>
+        <v>130.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1315.9999</v>
+        <v>1195.6036</v>
       </c>
       <c r="G50" t="n">
-        <v>77827.76983895666</v>
+        <v>58152.14633895666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>131</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2376,32 +2454,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="C51" t="n">
-        <v>133</v>
+        <v>130.8</v>
       </c>
       <c r="D51" t="n">
-        <v>133</v>
+        <v>130.8</v>
       </c>
       <c r="E51" t="n">
-        <v>133</v>
+        <v>130.7</v>
       </c>
       <c r="F51" t="n">
-        <v>21.4507</v>
+        <v>681.1088999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>77849.22053895667</v>
+        <v>58833.25523895666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>131</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2412,32 +2496,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>132.7</v>
+        <v>130.7</v>
       </c>
       <c r="C52" t="n">
-        <v>132.7</v>
+        <v>130.9</v>
       </c>
       <c r="D52" t="n">
-        <v>132.7</v>
+        <v>130.9</v>
       </c>
       <c r="E52" t="n">
-        <v>132.7</v>
+        <v>130.7</v>
       </c>
       <c r="F52" t="n">
-        <v>3714</v>
+        <v>1147.2901</v>
       </c>
       <c r="G52" t="n">
-        <v>74135.22053895667</v>
+        <v>59980.54533895666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>131</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2448,32 +2538,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>132.7</v>
+        <v>130.8</v>
       </c>
       <c r="C53" t="n">
-        <v>132.7</v>
+        <v>130.4</v>
       </c>
       <c r="D53" t="n">
-        <v>132.7</v>
+        <v>130.8</v>
       </c>
       <c r="E53" t="n">
-        <v>132.7</v>
+        <v>130.4</v>
       </c>
       <c r="F53" t="n">
-        <v>105</v>
+        <v>1713.2211</v>
       </c>
       <c r="G53" t="n">
-        <v>74135.22053895667</v>
+        <v>58267.32423895666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>131</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2484,32 +2580,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>132.7</v>
+        <v>130.8</v>
       </c>
       <c r="C54" t="n">
-        <v>132</v>
+        <v>130.8</v>
       </c>
       <c r="D54" t="n">
-        <v>132.7</v>
+        <v>130.8</v>
       </c>
       <c r="E54" t="n">
-        <v>132</v>
+        <v>130.8</v>
       </c>
       <c r="F54" t="n">
-        <v>528</v>
+        <v>1410.3886</v>
       </c>
       <c r="G54" t="n">
-        <v>73607.22053895667</v>
+        <v>59677.71283895666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>131</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2520,32 +2622,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>132</v>
+        <v>130.9</v>
       </c>
       <c r="C55" t="n">
-        <v>132</v>
+        <v>130.9</v>
       </c>
       <c r="D55" t="n">
-        <v>132</v>
+        <v>130.9</v>
       </c>
       <c r="E55" t="n">
-        <v>132</v>
+        <v>130.9</v>
       </c>
       <c r="F55" t="n">
-        <v>959.7088</v>
+        <v>989.2967</v>
       </c>
       <c r="G55" t="n">
-        <v>73607.22053895667</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>131</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2556,32 +2664,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>132.1</v>
+        <v>130.9</v>
       </c>
       <c r="C56" t="n">
-        <v>132.1</v>
+        <v>130.9</v>
       </c>
       <c r="D56" t="n">
-        <v>132.1</v>
+        <v>130.9</v>
       </c>
       <c r="E56" t="n">
-        <v>132.1</v>
+        <v>130.9</v>
       </c>
       <c r="F56" t="n">
-        <v>797.9964</v>
+        <v>2442.3057</v>
       </c>
       <c r="G56" t="n">
-        <v>74405.21693895667</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>131</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2592,32 +2706,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="C57" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="D57" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="E57" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="F57" t="n">
-        <v>331.4812</v>
+        <v>580</v>
       </c>
       <c r="G57" t="n">
-        <v>74073.73573895668</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>131</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2628,32 +2748,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="C58" t="n">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="D58" t="n">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="E58" t="n">
-        <v>131.8</v>
+        <v>130.9</v>
       </c>
       <c r="F58" t="n">
-        <v>578.7140000000001</v>
+        <v>297.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>74652.44973895668</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>131</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2664,32 +2790,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>133</v>
+        <v>130.9</v>
       </c>
       <c r="C59" t="n">
-        <v>131.9</v>
+        <v>130.9</v>
       </c>
       <c r="D59" t="n">
-        <v>133</v>
+        <v>130.9</v>
       </c>
       <c r="E59" t="n">
-        <v>131.9</v>
+        <v>130.9</v>
       </c>
       <c r="F59" t="n">
-        <v>3534.803</v>
+        <v>318</v>
       </c>
       <c r="G59" t="n">
-        <v>78187.25273895668</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>131</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2700,32 +2832,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>131.1</v>
+        <v>130.9</v>
       </c>
       <c r="C60" t="n">
-        <v>133</v>
+        <v>130.9</v>
       </c>
       <c r="D60" t="n">
-        <v>133</v>
+        <v>130.9</v>
       </c>
       <c r="E60" t="n">
-        <v>131.1</v>
+        <v>130.9</v>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="G60" t="n">
-        <v>78387.25273895668</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>131</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2739,29 +2877,35 @@
         <v>130.9</v>
       </c>
       <c r="C61" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="D61" t="n">
         <v>130.9</v>
       </c>
       <c r="E61" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="F61" t="n">
-        <v>897.4962</v>
+        <v>1381.9342</v>
       </c>
       <c r="G61" t="n">
-        <v>77489.75653895669</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>131</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2778,26 +2922,32 @@
         <v>130.9</v>
       </c>
       <c r="D62" t="n">
-        <v>130.9</v>
+        <v>131</v>
       </c>
       <c r="E62" t="n">
-        <v>130.9</v>
+        <v>130.8</v>
       </c>
       <c r="F62" t="n">
-        <v>137.8499</v>
+        <v>2560</v>
       </c>
       <c r="G62" t="n">
-        <v>77627.60643895669</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>131</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2808,32 +2958,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>130.8</v>
+        <v>130.9</v>
       </c>
       <c r="C63" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="D63" t="n">
         <v>131</v>
       </c>
       <c r="E63" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="F63" t="n">
-        <v>6023.5546</v>
+        <v>3487.8555</v>
       </c>
       <c r="G63" t="n">
-        <v>71604.05183895669</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>131</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2844,22 +3000,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="C64" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="D64" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="E64" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="F64" t="n">
-        <v>1568</v>
+        <v>1741</v>
       </c>
       <c r="G64" t="n">
-        <v>71604.05183895669</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2868,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>131</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2880,22 +3042,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="C65" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="D65" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="E65" t="n">
-        <v>130.2</v>
+        <v>130.9</v>
       </c>
       <c r="F65" t="n">
-        <v>2194.0995</v>
+        <v>520.1559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>71604.05183895669</v>
+        <v>60667.00953895666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2904,8 +3066,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>131</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +3084,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="D66" t="n">
-        <v>130</v>
+        <v>131.5</v>
       </c>
       <c r="E66" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F66" t="n">
-        <v>99.9401</v>
+        <v>11678.8302</v>
       </c>
       <c r="G66" t="n">
-        <v>71504.11173895668</v>
+        <v>72345.83973895665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2940,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>131</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2952,22 +3126,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="C67" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="D67" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="E67" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0599</v>
+        <v>1423</v>
       </c>
       <c r="G67" t="n">
-        <v>71504.11173895668</v>
+        <v>70922.83973895665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2976,8 +3150,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>131</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3168,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="C68" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="D68" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="E68" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="F68" t="n">
-        <v>410</v>
+        <v>2698.4998</v>
       </c>
       <c r="G68" t="n">
-        <v>71914.11173895668</v>
+        <v>73621.33953895666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3012,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>131</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3024,22 +3210,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="C69" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="D69" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="E69" t="n">
-        <v>131</v>
+        <v>130.8</v>
       </c>
       <c r="F69" t="n">
-        <v>410</v>
+        <v>18.7178</v>
       </c>
       <c r="G69" t="n">
-        <v>71914.11173895668</v>
+        <v>73602.62173895666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3048,8 +3234,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>131</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3060,34 +3252,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="C70" t="n">
-        <v>131</v>
+        <v>131.4</v>
       </c>
       <c r="D70" t="n">
-        <v>131</v>
+        <v>131.4</v>
       </c>
       <c r="E70" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="F70" t="n">
-        <v>837.0381</v>
+        <v>377.1131</v>
       </c>
       <c r="G70" t="n">
-        <v>71914.11173895668</v>
+        <v>73979.73483895666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>131</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0.998053435114504</v>
       </c>
       <c r="N70" t="inlineStr"/>
     </row>
@@ -3096,28 +3294,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>130.1</v>
+        <v>131.4</v>
       </c>
       <c r="C71" t="n">
-        <v>130.8</v>
+        <v>131.4</v>
       </c>
       <c r="D71" t="n">
-        <v>130.8</v>
+        <v>131.4</v>
       </c>
       <c r="E71" t="n">
-        <v>130.1</v>
+        <v>131.4</v>
       </c>
       <c r="F71" t="n">
-        <v>8586.6842</v>
+        <v>1913.574</v>
       </c>
       <c r="G71" t="n">
-        <v>63327.42753895668</v>
+        <v>73979.73483895666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3132,28 +3330,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>130</v>
+        <v>131.4</v>
       </c>
       <c r="C72" t="n">
-        <v>131.7</v>
+        <v>133</v>
       </c>
       <c r="D72" t="n">
-        <v>131.7</v>
+        <v>137.8</v>
       </c>
       <c r="E72" t="n">
-        <v>130</v>
+        <v>131.4</v>
       </c>
       <c r="F72" t="n">
-        <v>735.0214</v>
+        <v>7683.7774</v>
       </c>
       <c r="G72" t="n">
-        <v>64062.44893895667</v>
+        <v>81663.51223895667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3168,38 +3366,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>130.7</v>
+        <v>133</v>
       </c>
       <c r="C73" t="n">
-        <v>130.6</v>
+        <v>133</v>
       </c>
       <c r="D73" t="n">
-        <v>130.7</v>
+        <v>133</v>
       </c>
       <c r="E73" t="n">
-        <v>130.6</v>
+        <v>133</v>
       </c>
       <c r="F73" t="n">
-        <v>1197.3591</v>
+        <v>503.3473</v>
       </c>
       <c r="G73" t="n">
-        <v>62865.08983895667</v>
+        <v>81663.51223895667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>131.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3210,38 +3402,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>130.3</v>
+        <v>132.1</v>
       </c>
       <c r="C74" t="n">
-        <v>130.3</v>
+        <v>132.1</v>
       </c>
       <c r="D74" t="n">
-        <v>130.3</v>
+        <v>132.1</v>
       </c>
       <c r="E74" t="n">
-        <v>130.3</v>
+        <v>132.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1462</v>
+        <v>2583.3514</v>
       </c>
       <c r="G74" t="n">
-        <v>61403.08983895667</v>
+        <v>79080.16083895667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>130.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3252,38 +3438,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>130.5</v>
+        <v>132.1</v>
       </c>
       <c r="C75" t="n">
-        <v>130.2</v>
+        <v>132.1</v>
       </c>
       <c r="D75" t="n">
-        <v>130.5</v>
+        <v>132.1</v>
       </c>
       <c r="E75" t="n">
-        <v>130.2</v>
+        <v>132.1</v>
       </c>
       <c r="F75" t="n">
-        <v>791.1772999999999</v>
+        <v>1826.4118</v>
       </c>
       <c r="G75" t="n">
-        <v>60611.91253895667</v>
+        <v>79080.16083895667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>130.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3294,38 +3474,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>130.2</v>
+        <v>133.1</v>
       </c>
       <c r="C76" t="n">
-        <v>131.2</v>
+        <v>133.1</v>
       </c>
       <c r="D76" t="n">
-        <v>131.2</v>
+        <v>133.1</v>
       </c>
       <c r="E76" t="n">
-        <v>130.2</v>
+        <v>133.1</v>
       </c>
       <c r="F76" t="n">
-        <v>400</v>
+        <v>932.8915</v>
       </c>
       <c r="G76" t="n">
-        <v>61011.91253895667</v>
+        <v>80013.05233895667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>130.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3336,36 +3510,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>130.7</v>
+        <v>132.3</v>
       </c>
       <c r="C77" t="n">
-        <v>130.7</v>
+        <v>132.3</v>
       </c>
       <c r="D77" t="n">
-        <v>130.7</v>
+        <v>132.3</v>
       </c>
       <c r="E77" t="n">
-        <v>130.7</v>
+        <v>132.3</v>
       </c>
       <c r="F77" t="n">
-        <v>232</v>
+        <v>942.2826</v>
       </c>
       <c r="G77" t="n">
-        <v>60779.91253895667</v>
+        <v>79070.76973895666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3376,36 +3546,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>130.1</v>
+        <v>133.3</v>
       </c>
       <c r="C78" t="n">
-        <v>130.1</v>
+        <v>133.3</v>
       </c>
       <c r="D78" t="n">
-        <v>130.1</v>
+        <v>133.3</v>
       </c>
       <c r="E78" t="n">
-        <v>130.1</v>
+        <v>133.3</v>
       </c>
       <c r="F78" t="n">
-        <v>4.6284</v>
+        <v>73</v>
       </c>
       <c r="G78" t="n">
-        <v>60775.28413895667</v>
+        <v>79143.76973895666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3416,36 +3582,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>130.1</v>
+        <v>132.5</v>
       </c>
       <c r="C79" t="n">
-        <v>129.1</v>
+        <v>132.5</v>
       </c>
       <c r="D79" t="n">
-        <v>130.1</v>
+        <v>133.5</v>
       </c>
       <c r="E79" t="n">
-        <v>129.1</v>
+        <v>132.5</v>
       </c>
       <c r="F79" t="n">
-        <v>12429.8914</v>
+        <v>1315.9999</v>
       </c>
       <c r="G79" t="n">
-        <v>48345.39273895667</v>
+        <v>77827.76983895666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3456,38 +3618,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>131.2</v>
+        <v>133</v>
       </c>
       <c r="C80" t="n">
-        <v>131.1</v>
+        <v>133</v>
       </c>
       <c r="D80" t="n">
-        <v>131.2</v>
+        <v>133</v>
       </c>
       <c r="E80" t="n">
-        <v>131.1</v>
+        <v>133</v>
       </c>
       <c r="F80" t="n">
-        <v>1251.3234</v>
+        <v>21.4507</v>
       </c>
       <c r="G80" t="n">
-        <v>49596.71613895667</v>
+        <v>77849.22053895667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>129.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3498,38 +3654,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>129.3</v>
+        <v>132.7</v>
       </c>
       <c r="C81" t="n">
-        <v>131.3</v>
+        <v>132.7</v>
       </c>
       <c r="D81" t="n">
-        <v>131.3</v>
+        <v>132.7</v>
       </c>
       <c r="E81" t="n">
-        <v>128.1</v>
+        <v>132.7</v>
       </c>
       <c r="F81" t="n">
-        <v>12721.979</v>
+        <v>3714</v>
       </c>
       <c r="G81" t="n">
-        <v>62318.69513895667</v>
+        <v>74135.22053895667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>131.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3540,38 +3690,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>131.2</v>
+        <v>132.7</v>
       </c>
       <c r="C82" t="n">
-        <v>131.8</v>
+        <v>132.7</v>
       </c>
       <c r="D82" t="n">
-        <v>131.8</v>
+        <v>132.7</v>
       </c>
       <c r="E82" t="n">
-        <v>130.8</v>
+        <v>132.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1021</v>
+        <v>105</v>
       </c>
       <c r="G82" t="n">
-        <v>63339.69513895667</v>
+        <v>74135.22053895667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>131.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3582,36 +3726,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>131</v>
+        <v>132.7</v>
       </c>
       <c r="C83" t="n">
         <v>132</v>
       </c>
       <c r="D83" t="n">
-        <v>133</v>
+        <v>132.7</v>
       </c>
       <c r="E83" t="n">
-        <v>130.4</v>
+        <v>132</v>
       </c>
       <c r="F83" t="n">
-        <v>10579.7947</v>
+        <v>528</v>
       </c>
       <c r="G83" t="n">
-        <v>73919.48983895667</v>
+        <v>73607.22053895667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3622,36 +3762,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>130.9</v>
+        <v>132</v>
       </c>
       <c r="C84" t="n">
-        <v>132.4</v>
+        <v>132</v>
       </c>
       <c r="D84" t="n">
-        <v>132.4</v>
+        <v>132</v>
       </c>
       <c r="E84" t="n">
-        <v>130.8</v>
+        <v>132</v>
       </c>
       <c r="F84" t="n">
-        <v>2398</v>
+        <v>959.7088</v>
       </c>
       <c r="G84" t="n">
-        <v>76317.48983895667</v>
+        <v>73607.22053895667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3665,33 +3801,29 @@
         <v>132.1</v>
       </c>
       <c r="C85" t="n">
-        <v>131.3</v>
+        <v>132.1</v>
       </c>
       <c r="D85" t="n">
-        <v>133.8</v>
+        <v>132.1</v>
       </c>
       <c r="E85" t="n">
-        <v>131.3</v>
+        <v>132.1</v>
       </c>
       <c r="F85" t="n">
-        <v>836</v>
+        <v>797.9964</v>
       </c>
       <c r="G85" t="n">
-        <v>75481.48983895667</v>
+        <v>74405.21693895667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3702,36 +3834,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" t="n">
-        <v>133</v>
+        <v>130.8</v>
       </c>
       <c r="D86" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E86" t="n">
-        <v>133</v>
+        <v>130.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1324</v>
+        <v>331.4812</v>
       </c>
       <c r="G86" t="n">
-        <v>76805.48983895667</v>
+        <v>74073.73573895668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3742,36 +3870,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>130.8</v>
+        <v>131.8</v>
       </c>
       <c r="C87" t="n">
         <v>131.8</v>
       </c>
       <c r="D87" t="n">
-        <v>132.8</v>
+        <v>131.8</v>
       </c>
       <c r="E87" t="n">
-        <v>130.8</v>
+        <v>131.8</v>
       </c>
       <c r="F87" t="n">
-        <v>1385</v>
+        <v>578.7140000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>75420.48983895667</v>
+        <v>74652.44973895668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +3906,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>131.1</v>
+        <v>133</v>
       </c>
       <c r="C88" t="n">
-        <v>131.1</v>
+        <v>131.9</v>
       </c>
       <c r="D88" t="n">
-        <v>131.1</v>
+        <v>133</v>
       </c>
       <c r="E88" t="n">
-        <v>131.1</v>
+        <v>131.9</v>
       </c>
       <c r="F88" t="n">
-        <v>97</v>
+        <v>3534.803</v>
       </c>
       <c r="G88" t="n">
-        <v>75323.48983895667</v>
+        <v>78187.25273895668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3807,11 +3931,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3825,33 +3945,29 @@
         <v>131.1</v>
       </c>
       <c r="C89" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D89" t="n">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="E89" t="n">
-        <v>130</v>
+        <v>131.1</v>
       </c>
       <c r="F89" t="n">
-        <v>2782.2873</v>
+        <v>200</v>
       </c>
       <c r="G89" t="n">
-        <v>72541.20253895667</v>
+        <v>78387.25273895668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3862,36 +3978,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="C90" t="n">
-        <v>130.6</v>
+        <v>130.8</v>
       </c>
       <c r="D90" t="n">
-        <v>131</v>
+        <v>130.9</v>
       </c>
       <c r="E90" t="n">
-        <v>130.6</v>
+        <v>130.8</v>
       </c>
       <c r="F90" t="n">
-        <v>1355.4812</v>
+        <v>897.4962</v>
       </c>
       <c r="G90" t="n">
-        <v>71185.72133895668</v>
+        <v>77489.75653895669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3902,22 +4014,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>129.1</v>
+        <v>130.9</v>
       </c>
       <c r="C91" t="n">
-        <v>129.1</v>
+        <v>130.9</v>
       </c>
       <c r="D91" t="n">
-        <v>129.1</v>
+        <v>130.9</v>
       </c>
       <c r="E91" t="n">
-        <v>129.1</v>
+        <v>130.9</v>
       </c>
       <c r="F91" t="n">
-        <v>307</v>
+        <v>137.8499</v>
       </c>
       <c r="G91" t="n">
-        <v>70878.72133895668</v>
+        <v>77627.60643895669</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3927,11 +4039,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3942,22 +4050,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>129.1</v>
+        <v>130.8</v>
       </c>
       <c r="C92" t="n">
-        <v>132.9</v>
+        <v>130.2</v>
       </c>
       <c r="D92" t="n">
-        <v>132.9</v>
+        <v>131</v>
       </c>
       <c r="E92" t="n">
-        <v>129.1</v>
+        <v>130.2</v>
       </c>
       <c r="F92" t="n">
-        <v>907</v>
+        <v>6023.5546</v>
       </c>
       <c r="G92" t="n">
-        <v>71785.72133895668</v>
+        <v>71604.05183895669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3967,11 +4075,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +4086,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>131</v>
+        <v>130.2</v>
       </c>
       <c r="C93" t="n">
-        <v>132</v>
+        <v>130.2</v>
       </c>
       <c r="D93" t="n">
-        <v>133.4</v>
+        <v>130.2</v>
       </c>
       <c r="E93" t="n">
-        <v>130</v>
+        <v>130.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3215.8369</v>
+        <v>1568</v>
       </c>
       <c r="G93" t="n">
-        <v>68569.88443895668</v>
+        <v>71604.05183895669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4007,11 +4111,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4022,22 +4122,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>131</v>
+        <v>130.2</v>
       </c>
       <c r="C94" t="n">
-        <v>131</v>
+        <v>130.2</v>
       </c>
       <c r="D94" t="n">
-        <v>131</v>
+        <v>130.2</v>
       </c>
       <c r="E94" t="n">
-        <v>131</v>
+        <v>130.2</v>
       </c>
       <c r="F94" t="n">
-        <v>6198.4276</v>
+        <v>2194.0995</v>
       </c>
       <c r="G94" t="n">
-        <v>62371.45683895668</v>
+        <v>71604.05183895669</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4047,11 +4147,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4062,22 +4158,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>131.3</v>
+        <v>130</v>
       </c>
       <c r="C95" t="n">
-        <v>132.1</v>
+        <v>130</v>
       </c>
       <c r="D95" t="n">
-        <v>132.1</v>
+        <v>130</v>
       </c>
       <c r="E95" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F95" t="n">
-        <v>1199.1734</v>
+        <v>99.9401</v>
       </c>
       <c r="G95" t="n">
-        <v>63570.63023895668</v>
+        <v>71504.11173895668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4087,11 +4183,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +4194,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>131.1</v>
+        <v>130</v>
       </c>
       <c r="C96" t="n">
-        <v>131.1</v>
+        <v>130</v>
       </c>
       <c r="D96" t="n">
-        <v>131.1</v>
+        <v>130</v>
       </c>
       <c r="E96" t="n">
-        <v>131.1</v>
+        <v>130</v>
       </c>
       <c r="F96" t="n">
-        <v>251</v>
+        <v>0.0599</v>
       </c>
       <c r="G96" t="n">
-        <v>63319.63023895668</v>
+        <v>71504.11173895668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4127,11 +4219,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4142,36 +4230,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>131.3</v>
+        <v>131</v>
       </c>
       <c r="C97" t="n">
-        <v>131.4</v>
+        <v>131</v>
       </c>
       <c r="D97" t="n">
-        <v>132.4</v>
+        <v>131</v>
       </c>
       <c r="E97" t="n">
         <v>131</v>
       </c>
       <c r="F97" t="n">
-        <v>6891.4904</v>
+        <v>410</v>
       </c>
       <c r="G97" t="n">
-        <v>70211.12063895668</v>
+        <v>71914.11173895668</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="n">
+        <v>130</v>
+      </c>
+      <c r="K97" t="n">
+        <v>130</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4270,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="C98" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="D98" t="n">
-        <v>131.9</v>
+        <v>131</v>
       </c>
       <c r="E98" t="n">
-        <v>131.3</v>
+        <v>131</v>
       </c>
       <c r="F98" t="n">
-        <v>4533.2154</v>
+        <v>410</v>
       </c>
       <c r="G98" t="n">
-        <v>74744.33603895668</v>
+        <v>71914.11173895668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4206,10 +4294,12 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>130</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -4222,22 +4312,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C99" t="n">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="D99" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E99" t="n">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="F99" t="n">
-        <v>713.1129</v>
+        <v>837.0381</v>
       </c>
       <c r="G99" t="n">
-        <v>74031.22313895669</v>
+        <v>71914.11173895668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4246,10 +4336,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>130</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4262,22 +4354,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>132.9</v>
+        <v>130.1</v>
       </c>
       <c r="C100" t="n">
-        <v>133.9</v>
+        <v>130.8</v>
       </c>
       <c r="D100" t="n">
-        <v>133.9</v>
+        <v>130.8</v>
       </c>
       <c r="E100" t="n">
-        <v>132.9</v>
+        <v>130.1</v>
       </c>
       <c r="F100" t="n">
-        <v>893.1391</v>
+        <v>8586.6842</v>
       </c>
       <c r="G100" t="n">
-        <v>74924.36223895669</v>
+        <v>63327.42753895668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4287,11 +4379,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4302,72 +4390,74 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>134.7</v>
+        <v>130</v>
       </c>
       <c r="C101" t="n">
-        <v>134.7</v>
+        <v>131.7</v>
       </c>
       <c r="D101" t="n">
-        <v>134.9</v>
+        <v>131.7</v>
       </c>
       <c r="E101" t="n">
-        <v>134.7</v>
+        <v>130</v>
       </c>
       <c r="F101" t="n">
-        <v>600</v>
+        <v>735.0214</v>
       </c>
       <c r="G101" t="n">
-        <v>75524.36223895669</v>
+        <v>64062.44893895667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>1.0765625</v>
-      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>134.9</v>
+        <v>130.7</v>
       </c>
       <c r="C102" t="n">
-        <v>134.8</v>
+        <v>130.6</v>
       </c>
       <c r="D102" t="n">
-        <v>134.9</v>
+        <v>130.7</v>
       </c>
       <c r="E102" t="n">
-        <v>134.6</v>
+        <v>130.6</v>
       </c>
       <c r="F102" t="n">
-        <v>4718.9427</v>
+        <v>1197.3591</v>
       </c>
       <c r="G102" t="n">
-        <v>80243.30493895669</v>
+        <v>62865.08983895667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>131.7</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4378,32 +4468,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>134.9</v>
+        <v>130.3</v>
       </c>
       <c r="C103" t="n">
-        <v>134.9</v>
+        <v>130.3</v>
       </c>
       <c r="D103" t="n">
-        <v>134.9</v>
+        <v>130.3</v>
       </c>
       <c r="E103" t="n">
-        <v>134.9</v>
+        <v>130.3</v>
       </c>
       <c r="F103" t="n">
-        <v>555.1665</v>
+        <v>1462</v>
       </c>
       <c r="G103" t="n">
-        <v>80798.47143895669</v>
+        <v>61403.08983895667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>130.6</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4414,32 +4510,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>135</v>
+        <v>130.5</v>
       </c>
       <c r="C104" t="n">
-        <v>135</v>
+        <v>130.2</v>
       </c>
       <c r="D104" t="n">
-        <v>135</v>
+        <v>130.5</v>
       </c>
       <c r="E104" t="n">
-        <v>135</v>
+        <v>130.2</v>
       </c>
       <c r="F104" t="n">
-        <v>382.1146</v>
+        <v>791.1772999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>81180.5860389567</v>
+        <v>60611.91253895667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>130.3</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4450,32 +4552,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>135</v>
+        <v>130.2</v>
       </c>
       <c r="C105" t="n">
-        <v>135</v>
+        <v>131.2</v>
       </c>
       <c r="D105" t="n">
-        <v>135</v>
+        <v>131.2</v>
       </c>
       <c r="E105" t="n">
-        <v>135</v>
+        <v>130.2</v>
       </c>
       <c r="F105" t="n">
-        <v>239.1717</v>
+        <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>81180.5860389567</v>
+        <v>61011.91253895667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>130.2</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4486,36 +4594,1124 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>232</v>
+      </c>
+      <c r="G106" t="n">
+        <v>60779.91253895667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4.6284</v>
+      </c>
+      <c r="G107" t="n">
+        <v>60775.28413895667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12429.8914</v>
+      </c>
+      <c r="G108" t="n">
+        <v>48345.39273895667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1251.3234</v>
+      </c>
+      <c r="G109" t="n">
+        <v>49596.71613895667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12721.979</v>
+      </c>
+      <c r="G110" t="n">
+        <v>62318.69513895667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G111" t="n">
+        <v>63339.69513895667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>131</v>
+      </c>
+      <c r="C112" t="n">
+        <v>132</v>
+      </c>
+      <c r="D112" t="n">
+        <v>133</v>
+      </c>
+      <c r="E112" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10579.7947</v>
+      </c>
+      <c r="G112" t="n">
+        <v>73919.48983895667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2398</v>
+      </c>
+      <c r="G113" t="n">
+        <v>76317.48983895667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>836</v>
+      </c>
+      <c r="G114" t="n">
+        <v>75481.48983895667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>133</v>
+      </c>
+      <c r="C115" t="n">
+        <v>133</v>
+      </c>
+      <c r="D115" t="n">
+        <v>133</v>
+      </c>
+      <c r="E115" t="n">
+        <v>133</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1324</v>
+      </c>
+      <c r="G115" t="n">
+        <v>76805.48983895667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1385</v>
+      </c>
+      <c r="G116" t="n">
+        <v>75420.48983895667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>97</v>
+      </c>
+      <c r="G117" t="n">
+        <v>75323.48983895667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>131</v>
+      </c>
+      <c r="D118" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>130</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2782.2873</v>
+      </c>
+      <c r="G118" t="n">
+        <v>72541.20253895667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>131</v>
+      </c>
+      <c r="C119" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>131</v>
+      </c>
+      <c r="E119" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1355.4812</v>
+      </c>
+      <c r="G119" t="n">
+        <v>71185.72133895668</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>307</v>
+      </c>
+      <c r="G120" t="n">
+        <v>70878.72133895668</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>907</v>
+      </c>
+      <c r="G121" t="n">
+        <v>71785.72133895668</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>131</v>
+      </c>
+      <c r="C122" t="n">
+        <v>132</v>
+      </c>
+      <c r="D122" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>130</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3215.8369</v>
+      </c>
+      <c r="G122" t="n">
+        <v>68569.88443895668</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>131</v>
+      </c>
+      <c r="C123" t="n">
+        <v>131</v>
+      </c>
+      <c r="D123" t="n">
+        <v>131</v>
+      </c>
+      <c r="E123" t="n">
+        <v>131</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6198.4276</v>
+      </c>
+      <c r="G123" t="n">
+        <v>62371.45683895668</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>131</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1199.1734</v>
+      </c>
+      <c r="G124" t="n">
+        <v>63570.63023895668</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>251</v>
+      </c>
+      <c r="G125" t="n">
+        <v>63319.63023895668</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>131</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6891.4904</v>
+      </c>
+      <c r="G126" t="n">
+        <v>70211.12063895668</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4533.2154</v>
+      </c>
+      <c r="G127" t="n">
+        <v>74744.33603895668</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>134</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C128" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>134</v>
+      </c>
+      <c r="E128" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>713.1129</v>
+      </c>
+      <c r="G128" t="n">
+        <v>74031.22313895669</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>893.1391</v>
+      </c>
+      <c r="G129" t="n">
+        <v>74924.36223895669</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="D130" t="n">
         <v>134.9</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E130" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>600</v>
+      </c>
+      <c r="G130" t="n">
+        <v>75524.36223895669</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>134.9</v>
       </c>
-      <c r="E106" t="n">
+      <c r="C131" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4718.9427</v>
+      </c>
+      <c r="G131" t="n">
+        <v>80243.30493895669</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>555.1665</v>
+      </c>
+      <c r="G132" t="n">
+        <v>80798.47143895669</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>135</v>
+      </c>
+      <c r="C133" t="n">
+        <v>135</v>
+      </c>
+      <c r="D133" t="n">
+        <v>135</v>
+      </c>
+      <c r="E133" t="n">
+        <v>135</v>
+      </c>
+      <c r="F133" t="n">
+        <v>382.1146</v>
+      </c>
+      <c r="G133" t="n">
+        <v>81180.5860389567</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>135</v>
+      </c>
+      <c r="C134" t="n">
+        <v>135</v>
+      </c>
+      <c r="D134" t="n">
+        <v>135</v>
+      </c>
+      <c r="E134" t="n">
+        <v>135</v>
+      </c>
+      <c r="F134" t="n">
+        <v>239.1717</v>
+      </c>
+      <c r="G134" t="n">
+        <v>81180.5860389567</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>134</v>
       </c>
-      <c r="F106" t="n">
+      <c r="C135" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>134</v>
+      </c>
+      <c r="F135" t="n">
         <v>500</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G135" t="n">
         <v>80680.5860389567</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +781,15 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>131</v>
-      </c>
-      <c r="K12" t="n">
-        <v>131</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -856,26 +814,19 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.1</v>
       </c>
       <c r="J13" t="n">
         <v>131.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>131</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,24 +853,19 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>131</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,26 +890,23 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>130.1</v>
       </c>
       <c r="J15" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>131</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,24 +933,19 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>131</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,26 +970,21 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>131</v>
-      </c>
-      <c r="K17" t="n">
-        <v>131</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,24 +1011,19 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>131</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1120,24 +1048,23 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>131</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>129</v>
+      </c>
+      <c r="J19" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,24 +1089,21 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>131</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1204,24 +1128,23 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>131</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>129.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1246,26 +1169,21 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>131</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1290,24 +1208,23 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>131</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>130.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,22 +1251,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>131</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1376,22 +1290,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>131</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,22 +1329,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>131</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1460,22 +1368,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>131</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1500,24 +1405,23 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>131</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>129.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1542,24 +1446,23 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>131</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="J29" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,24 +1487,23 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>131</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="J30" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,26 +1528,23 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
-      </c>
-      <c r="K31" t="n">
-        <v>131</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1670,26 +1569,21 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>130</v>
-      </c>
-      <c r="K32" t="n">
-        <v>131</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1716,22 +1610,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>131</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1756,24 +1647,23 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>131</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>130</v>
+      </c>
+      <c r="J34" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1798,26 +1688,23 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.9</v>
       </c>
       <c r="J35" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>131</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>131.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,22 +1731,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>131</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,24 +1768,23 @@
         <v>88295.93653895665</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>131</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>130.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1928,22 +1811,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>131</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1970,22 +1850,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>131</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2012,22 +1889,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>131</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2054,22 +1928,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>131</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2096,22 +1967,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>131</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2138,22 +2006,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>131</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2180,22 +2045,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>131</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2222,22 +2084,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>131</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2264,22 +2123,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>131</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2306,22 +2162,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>131</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2348,22 +2201,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>131</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2390,22 +2240,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>131</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2432,22 +2279,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>131</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2472,24 +2316,21 @@
         <v>58833.25523895666</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>131</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0.9927116704805493</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2516,22 +2357,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>131</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2558,22 +2390,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>131</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2600,22 +2423,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>131</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2642,22 +2456,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>131</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2684,22 +2489,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>131</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2726,22 +2522,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>131</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2768,22 +2555,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>131</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2810,22 +2588,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>131</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2852,22 +2621,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>131</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2894,22 +2654,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>131</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2936,22 +2687,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>131</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2978,22 +2720,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>131</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3020,22 +2753,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>131</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3062,22 +2786,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>131</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3104,22 +2819,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>131</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3146,22 +2852,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>131</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3188,22 +2885,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>131</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3230,22 +2918,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>131</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3272,22 +2951,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>131</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>0.998053435114504</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3314,16 +2984,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3350,16 +3017,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3386,16 +3050,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3420,18 +3081,15 @@
         <v>79080.16083895667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3456,18 +3114,15 @@
         <v>79080.16083895667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3494,16 +3149,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3528,18 +3180,15 @@
         <v>79070.76973895666</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3564,18 +3213,15 @@
         <v>79143.76973895666</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3600,18 +3246,15 @@
         <v>77827.76983895666</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3636,18 +3279,15 @@
         <v>77849.22053895667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3672,18 +3312,15 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3708,18 +3345,15 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3744,18 +3378,15 @@
         <v>73607.22053895667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3780,18 +3411,15 @@
         <v>73607.22053895667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3816,18 +3444,15 @@
         <v>74405.21693895667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3852,18 +3477,15 @@
         <v>74073.73573895668</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3888,18 +3510,15 @@
         <v>74652.44973895668</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3924,18 +3543,15 @@
         <v>78187.25273895668</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3960,18 +3576,15 @@
         <v>78387.25273895668</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3996,18 +3609,15 @@
         <v>77489.75653895669</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4032,18 +3642,15 @@
         <v>77627.60643895669</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4070,16 +3677,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4104,18 +3708,15 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4140,18 +3741,15 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4176,18 +3774,15 @@
         <v>71504.11173895668</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4214,16 +3809,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4248,22 +3840,15 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>130</v>
-      </c>
-      <c r="K97" t="n">
-        <v>130</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4288,24 +3873,15 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>130</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4332,22 +3908,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>130</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4374,16 +3941,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4410,16 +3974,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4446,22 +4007,13 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>131.7</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4486,24 +4038,15 @@
         <v>61403.08983895667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>130.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4530,22 +4073,13 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>130.3</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4572,22 +4106,13 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>130.2</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4614,22 +4139,13 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>131.2</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4656,22 +4172,13 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>130.7</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4698,22 +4205,13 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>130.1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4740,22 +4238,13 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>129.1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4782,22 +4271,13 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>131.1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4824,22 +4304,13 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>131.3</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4866,22 +4337,13 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>131.8</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4906,20 +4368,15 @@
         <v>76317.48983895667</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L113" t="n">
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4944,18 +4401,15 @@
         <v>75481.48983895667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4982,16 +4436,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5016,18 +4467,15 @@
         <v>75420.48983895667</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5052,18 +4500,15 @@
         <v>75323.48983895667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5090,16 +4535,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5126,16 +4568,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5160,18 +4599,15 @@
         <v>70878.72133895668</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5198,16 +4634,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5232,18 +4665,15 @@
         <v>68569.88443895668</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5268,18 +4698,15 @@
         <v>62371.45683895668</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5304,18 +4731,15 @@
         <v>63570.63023895668</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5342,16 +4766,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5376,18 +4797,15 @@
         <v>70211.12063895668</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5412,18 +4830,15 @@
         <v>74744.33603895668</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5448,18 +4863,15 @@
         <v>74031.22313895669</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5484,18 +4896,15 @@
         <v>74924.36223895669</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5520,18 +4929,15 @@
         <v>75524.36223895669</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5556,18 +4962,15 @@
         <v>80243.30493895669</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5592,18 +4995,15 @@
         <v>80798.47143895669</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5628,18 +5028,15 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5664,18 +5061,15 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5700,20 +5094,17 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,10 +781,14 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>131</v>
+      </c>
+      <c r="J12" t="n">
+        <v>131</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,15 +818,19 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>131.1</v>
       </c>
       <c r="J13" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,11 +859,11 @@
         <v>37116.88403895666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -890,13 +898,13 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>130.1</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -933,9 +941,11 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>129.8</v>
+      </c>
       <c r="J16" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -970,11 +980,13 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>131</v>
+      </c>
       <c r="J17" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1011,9 +1023,11 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>128.1</v>
+      </c>
       <c r="J18" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1048,13 +1062,11 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1089,11 +1101,11 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1128,13 +1140,11 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>129.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1173,7 +1183,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1208,13 +1218,11 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>130.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1253,7 +1261,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1292,7 +1300,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1331,7 +1339,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1370,7 +1378,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1405,13 +1413,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>129.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1446,13 +1452,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1487,13 +1491,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1528,13 +1530,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1647,13 +1647,11 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1688,13 +1686,11 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>129.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1733,7 +1729,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1768,13 +1764,11 @@
         <v>88295.93653895665</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1813,7 +1807,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1852,7 +1846,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1891,7 +1885,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,7 +1924,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1969,7 +1963,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2008,7 +2002,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2047,7 +2041,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2086,7 +2080,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2125,7 +2119,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2164,7 +2158,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2203,7 +2197,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2242,7 +2236,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2281,7 +2275,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2316,52 +2310,58 @@
         <v>58833.25523895666</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>131.1</v>
+        <v>131</v>
       </c>
       <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1147.2901</v>
+      </c>
+      <c r="G52" t="n">
+        <v>59980.54533895666</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>131</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>0.9927116704805493</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1147.2901</v>
-      </c>
-      <c r="G52" t="n">
-        <v>59980.54533895666</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.9942366412213741</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2454,7 +2454,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2619,7 +2619,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2850,7 +2850,7 @@
         <v>70922.83973895665</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2883,7 +2883,7 @@
         <v>73621.33953895666</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
         <v>73602.62173895666</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2949,7 +2949,7 @@
         <v>73979.73483895666</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
         <v>79080.16083895667</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
         <v>79080.16083895667</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3180,7 +3180,7 @@
         <v>79070.76973895666</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
         <v>79143.76973895666</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
         <v>77827.76983895666</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3279,7 +3279,7 @@
         <v>77849.22053895667</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3312,7 +3312,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3345,7 +3345,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3378,7 +3378,7 @@
         <v>73607.22053895667</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3411,7 +3411,7 @@
         <v>73607.22053895667</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3444,7 +3444,7 @@
         <v>74405.21693895667</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
         <v>74073.73573895668</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3510,7 +3510,7 @@
         <v>74652.44973895668</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3543,7 +3543,7 @@
         <v>78187.25273895668</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
         <v>78387.25273895668</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
         <v>77489.75653895669</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3642,7 +3642,7 @@
         <v>77627.60643895669</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3675,7 +3675,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3708,7 +3708,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3741,7 +3741,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3774,7 +3774,7 @@
         <v>71504.11173895668</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3807,7 +3807,7 @@
         <v>71504.11173895668</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3840,7 +3840,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3873,7 +3873,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3939,7 +3939,7 @@
         <v>63327.42753895668</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3972,7 +3972,7 @@
         <v>64062.44893895667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4005,7 +4005,7 @@
         <v>62865.08983895667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
         <v>61403.08983895667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
         <v>60611.91253895667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
         <v>61011.91253895667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         <v>60779.91253895667</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4170,7 +4170,7 @@
         <v>60775.28413895667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4203,7 +4203,7 @@
         <v>48345.39273895667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4236,7 +4236,7 @@
         <v>49596.71613895667</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
         <v>62318.69513895667</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
         <v>63339.69513895667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4335,7 +4335,7 @@
         <v>73919.48983895667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
         <v>76317.48983895667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
         <v>75481.48983895667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4434,7 +4434,7 @@
         <v>76805.48983895667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4467,7 +4467,7 @@
         <v>75420.48983895667</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4500,7 +4500,7 @@
         <v>75323.48983895667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4533,7 +4533,7 @@
         <v>72541.20253895667</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4566,7 +4566,7 @@
         <v>71185.72133895668</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4599,7 +4599,7 @@
         <v>70878.72133895668</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4632,7 +4632,7 @@
         <v>71785.72133895668</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4665,7 +4665,7 @@
         <v>68569.88443895668</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4698,7 +4698,7 @@
         <v>62371.45683895668</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
         <v>63570.63023895668</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4797,7 +4797,7 @@
         <v>70211.12063895668</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4830,7 +4830,7 @@
         <v>74744.33603895668</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4863,7 +4863,7 @@
         <v>74031.22313895669</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
         <v>74924.36223895669</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4929,7 +4929,7 @@
         <v>75524.36223895669</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4962,7 +4962,7 @@
         <v>80243.30493895669</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4995,7 +4995,7 @@
         <v>80798.47143895669</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5028,7 +5028,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5094,7 +5094,7 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5105,6 +5105,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>32731.2516204578</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>129.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>32804.2516204578</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -781,14 +799,10 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -818,19 +832,11 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>131</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -859,17 +865,11 @@
         <v>37116.88403895666</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>131</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -898,19 +898,11 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>131</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,19 +931,11 @@
         <v>38347.90763895666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>131</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,19 +964,11 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>131</v>
-      </c>
-      <c r="J17" t="n">
-        <v>131</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1021,19 +997,11 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>131</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1065,14 +1033,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>131</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1104,14 +1066,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>131</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1143,14 +1099,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>131</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1179,17 +1129,11 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>131</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1218,17 +1162,11 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>131</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1260,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>131</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1299,14 +1231,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>131</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1338,14 +1264,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>131</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,17 +1294,11 @@
         <v>72571.21703895666</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>131</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1413,17 +1327,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>131</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,17 +1360,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>131</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,17 +1393,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>131</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,17 +1426,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>131</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,17 +1459,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>131</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1608,17 +1492,11 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>131</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,17 +1525,11 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>131</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,17 +1558,11 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>131</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1725,17 +1591,11 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>131</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1767,14 +1627,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>131</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1803,17 +1657,11 @@
         <v>89140.93653895665</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>131</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1845,14 +1693,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>131</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1884,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>131</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1923,14 +1759,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>131</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1962,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>131</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2001,14 +1825,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>131</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2040,14 +1858,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>131</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>131</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>131</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2154,17 +1954,11 @@
         <v>86148.59473895666</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>131</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2193,17 +1987,11 @@
         <v>63110.19713895666</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>131</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2232,17 +2020,11 @@
         <v>58152.14633895666</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>131</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>131</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>131</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2349,19 +2119,13 @@
         <v>59980.54533895666</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>131</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.9942366412213741</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2454,7 +2218,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2619,7 +2383,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2652,7 +2416,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2685,7 +2449,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2718,7 +2482,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2751,7 +2515,7 @@
         <v>60667.00953895666</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2850,7 +2614,7 @@
         <v>70922.83973895665</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2883,7 +2647,7 @@
         <v>73621.33953895666</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2916,7 +2680,7 @@
         <v>73602.62173895666</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2949,7 +2713,7 @@
         <v>73979.73483895666</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3411,7 +3175,7 @@
         <v>73607.22053895667</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3444,7 +3208,7 @@
         <v>74405.21693895667</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3477,7 +3241,7 @@
         <v>74073.73573895668</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3510,7 +3274,7 @@
         <v>74652.44973895668</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3543,7 +3307,7 @@
         <v>78187.25273895668</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3576,7 +3340,7 @@
         <v>78387.25273895668</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3609,7 +3373,7 @@
         <v>77489.75653895669</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3642,7 +3406,7 @@
         <v>77627.60643895669</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3675,7 +3439,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3708,7 +3472,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3741,7 +3505,7 @@
         <v>71604.05183895669</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3774,7 +3538,7 @@
         <v>71504.11173895668</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3807,7 +3571,7 @@
         <v>71504.11173895668</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3840,7 +3604,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3873,7 +3637,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3906,7 +3670,7 @@
         <v>71914.11173895668</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3939,7 +3703,7 @@
         <v>63327.42753895668</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3972,7 +3736,7 @@
         <v>64062.44893895667</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4005,7 +3769,7 @@
         <v>62865.08983895667</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4038,7 +3802,7 @@
         <v>61403.08983895667</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4071,7 +3835,7 @@
         <v>60611.91253895667</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4104,7 +3868,7 @@
         <v>61011.91253895667</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4137,7 +3901,7 @@
         <v>60779.91253895667</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4170,7 +3934,7 @@
         <v>60775.28413895667</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4203,7 +3967,7 @@
         <v>48345.39273895667</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4236,7 +4000,7 @@
         <v>49596.71613895667</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4269,7 +4033,7 @@
         <v>62318.69513895667</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4302,7 +4066,7 @@
         <v>63339.69513895667</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4335,7 +4099,7 @@
         <v>73919.48983895667</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4368,7 +4132,7 @@
         <v>76317.48983895667</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4401,7 +4165,7 @@
         <v>75481.48983895667</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4434,7 +4198,7 @@
         <v>76805.48983895667</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4467,7 +4231,7 @@
         <v>75420.48983895667</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4500,7 +4264,7 @@
         <v>75323.48983895667</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4533,7 +4297,7 @@
         <v>72541.20253895667</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4566,7 +4330,7 @@
         <v>71185.72133895668</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4599,7 +4363,7 @@
         <v>70878.72133895668</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4632,7 +4396,7 @@
         <v>71785.72133895668</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4665,7 +4429,7 @@
         <v>68569.88443895668</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4698,7 +4462,7 @@
         <v>62371.45683895668</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4731,7 +4495,7 @@
         <v>63570.63023895668</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4797,7 +4561,7 @@
         <v>70211.12063895668</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4830,7 +4594,7 @@
         <v>74744.33603895668</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4863,7 +4627,7 @@
         <v>74031.22313895669</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4896,7 +4660,7 @@
         <v>74924.36223895669</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4929,7 +4693,7 @@
         <v>75524.36223895669</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5028,7 +4792,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5061,7 +4825,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5094,7 +4858,7 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5105,6 +4869,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -451,7 +451,7 @@
         <v>31720.2516204578</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -766,11 +766,17 @@
         <v>36730.05183895666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130.1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +805,17 @@
         <v>36925.80433895666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>131</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,11 +844,17 @@
         <v>37325.80433895666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>131.1</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +883,17 @@
         <v>37116.88403895666</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>131.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -898,11 +922,17 @@
         <v>34266.88403895666</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>130.1</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -931,11 +961,17 @@
         <v>38347.90763895666</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>129.8</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -964,11 +1000,17 @@
         <v>29057.69423895666</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>131</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,11 +1039,17 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128.1</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +1078,17 @@
         <v>67786.21763895666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>129</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +1117,17 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>129</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1156,17 @@
         <v>67986.21763895666</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>129.9</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1195,17 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129.9</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1234,17 @@
         <v>68186.21763895666</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>130.5</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1199,7 +1277,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1310,17 @@
         <v>72196.08563895666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>130.7</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1265,7 +1353,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1294,11 +1386,17 @@
         <v>72571.21703895666</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>129</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1425,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1462,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1499,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1536,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1573,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1610,15 @@
         <v>72652.21703895666</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1647,15 @@
         <v>72633.21703895666</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1558,11 +1684,15 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1721,15 @@
         <v>72833.21703895666</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1795,15 @@
         <v>89140.93653895665</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,7 +1836,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,7 +1947,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1826,7 +1984,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,7 +2021,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,7 +2058,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1925,7 +2095,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2128,15 @@
         <v>86148.59473895666</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1987,11 +2165,15 @@
         <v>63110.19713895666</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +2202,15 @@
         <v>58152.14633895666</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2057,7 +2243,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,7 +2280,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2123,7 +2317,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2156,7 +2354,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2189,7 +2391,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2222,7 +2428,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2255,7 +2465,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2502,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2321,7 +2539,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2354,7 +2576,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2613,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2420,7 +2650,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2687,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2486,7 +2724,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2761,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2552,7 +2798,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2835,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2618,7 +2872,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2909,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2946,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2717,7 +2983,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +3020,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2783,7 +3057,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +3094,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +3131,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2882,7 +3168,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,7 +3205,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +3242,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,7 +3279,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3014,7 +3316,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,14 +3349,16 @@
         <v>77849.22053895667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3076,7 +3384,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3417,7 @@
         <v>74135.22053895667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4726,7 +5034,7 @@
         <v>80243.30493895669</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +5067,7 @@
         <v>80798.47143895669</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +5100,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +5133,7 @@
         <v>81180.5860389567</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +5166,7 @@
         <v>80680.5860389567</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest RDN.xlsx
+++ b/BackTest/2020-01-16 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>31720.2516204578</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1011</v>
       </c>
       <c r="G3" t="n">
-        <v>32731.2516204578</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>73</v>
       </c>
       <c r="G4" t="n">
-        <v>32804.2516204578</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>10.00758150113723</v>
       </c>
       <c r="G5" t="n">
-        <v>32794.24403895666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +563,15 @@
         <v>3666.7639</v>
       </c>
       <c r="G6" t="n">
-        <v>36461.00793895666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +593,15 @@
         <v>597</v>
       </c>
       <c r="G7" t="n">
-        <v>35864.00793895666</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +623,15 @@
         <v>39.0439</v>
       </c>
       <c r="G8" t="n">
-        <v>35903.05183895666</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +653,15 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>35703.05183895666</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +683,15 @@
         <v>600</v>
       </c>
       <c r="G10" t="n">
-        <v>36303.05183895666</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,24 +713,15 @@
         <v>427</v>
       </c>
       <c r="G11" t="n">
-        <v>36730.05183895666</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>130.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -802,24 +743,15 @@
         <v>195.7525</v>
       </c>
       <c r="G12" t="n">
-        <v>36925.80433895666</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -841,24 +773,15 @@
         <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>37325.80433895666</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>131.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -880,24 +803,15 @@
         <v>208.9203</v>
       </c>
       <c r="G14" t="n">
-        <v>37116.88403895666</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>131.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -919,24 +833,15 @@
         <v>2850</v>
       </c>
       <c r="G15" t="n">
-        <v>34266.88403895666</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>130.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -958,24 +863,15 @@
         <v>4081.0236</v>
       </c>
       <c r="G16" t="n">
-        <v>38347.90763895666</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>129.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -997,24 +893,15 @@
         <v>9290.213400000001</v>
       </c>
       <c r="G17" t="n">
-        <v>29057.69423895666</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1036,24 +923,15 @@
         <v>38728.5234</v>
       </c>
       <c r="G18" t="n">
-        <v>67786.21763895666</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,24 +953,15 @@
         <v>2530.7879</v>
       </c>
       <c r="G19" t="n">
-        <v>67786.21763895666</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,24 +983,15 @@
         <v>200</v>
       </c>
       <c r="G20" t="n">
-        <v>67986.21763895666</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,24 +1013,15 @@
         <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>67986.21763895666</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>129.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,24 +1043,15 @@
         <v>200</v>
       </c>
       <c r="G22" t="n">
-        <v>68186.21763895666</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>129.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1231,24 +1073,15 @@
         <v>1414</v>
       </c>
       <c r="G23" t="n">
-        <v>68186.21763895666</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>130.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,22 +1103,15 @@
         <v>3946</v>
       </c>
       <c r="G24" t="n">
-        <v>72132.21763895666</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1307,24 +1133,15 @@
         <v>63.868</v>
       </c>
       <c r="G25" t="n">
-        <v>72196.08563895666</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>130.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,22 +1163,15 @@
         <v>63</v>
       </c>
       <c r="G26" t="n">
-        <v>72133.08563895666</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1383,24 +1193,15 @@
         <v>438.1314</v>
       </c>
       <c r="G27" t="n">
-        <v>72571.21703895666</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,22 +1223,15 @@
         <v>81</v>
       </c>
       <c r="G28" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1459,22 +1253,15 @@
         <v>2434.4831</v>
       </c>
       <c r="G29" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,22 +1283,15 @@
         <v>447</v>
       </c>
       <c r="G30" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1533,22 +1313,15 @@
         <v>1782.4231</v>
       </c>
       <c r="G31" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,22 +1343,15 @@
         <v>7302.6391</v>
       </c>
       <c r="G32" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1607,22 +1373,15 @@
         <v>20969.8251</v>
       </c>
       <c r="G33" t="n">
-        <v>72652.21703895666</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,22 +1403,15 @@
         <v>19</v>
       </c>
       <c r="G34" t="n">
-        <v>72633.21703895666</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1681,22 +1433,15 @@
         <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>72833.21703895666</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,22 +1463,15 @@
         <v>600</v>
       </c>
       <c r="G36" t="n">
-        <v>72833.21703895666</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1755,22 +1493,15 @@
         <v>15462.7195</v>
       </c>
       <c r="G37" t="n">
-        <v>88295.93653895665</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,22 +1523,15 @@
         <v>845</v>
       </c>
       <c r="G38" t="n">
-        <v>89140.93653895665</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1829,22 +1553,15 @@
         <v>280</v>
       </c>
       <c r="G39" t="n">
-        <v>88860.93653895665</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1866,22 +1583,15 @@
         <v>2622.3418</v>
       </c>
       <c r="G40" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1903,22 +1613,15 @@
         <v>3200</v>
       </c>
       <c r="G41" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1940,22 +1643,15 @@
         <v>13844.31</v>
       </c>
       <c r="G42" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1977,22 +1673,15 @@
         <v>5530.37</v>
       </c>
       <c r="G43" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2014,22 +1703,15 @@
         <v>1502.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2051,22 +1733,15 @@
         <v>169.9304</v>
       </c>
       <c r="G45" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2088,22 +1763,15 @@
         <v>836.3908</v>
       </c>
       <c r="G46" t="n">
-        <v>86238.59473895666</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2125,22 +1793,15 @@
         <v>90</v>
       </c>
       <c r="G47" t="n">
-        <v>86148.59473895666</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2162,22 +1823,15 @@
         <v>23038.3976</v>
       </c>
       <c r="G48" t="n">
-        <v>63110.19713895666</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2199,22 +1853,15 @@
         <v>4958.0508</v>
       </c>
       <c r="G49" t="n">
-        <v>58152.14633895666</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2236,22 +1883,15 @@
         <v>1195.6036</v>
       </c>
       <c r="G50" t="n">
-        <v>58152.14633895666</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2273,22 +1913,15 @@
         <v>681.1088999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>58833.25523895666</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2310,22 +1943,15 @@
         <v>1147.2901</v>
       </c>
       <c r="G52" t="n">
-        <v>59980.54533895666</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2347,22 +1973,15 @@
         <v>1713.2211</v>
       </c>
       <c r="G53" t="n">
-        <v>58267.32423895666</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,22 +2003,15 @@
         <v>1410.3886</v>
       </c>
       <c r="G54" t="n">
-        <v>59677.71283895666</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,22 +2033,15 @@
         <v>989.2967</v>
       </c>
       <c r="G55" t="n">
-        <v>60667.00953895666</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2458,22 +2063,15 @@
         <v>2442.3057</v>
       </c>
       <c r="G56" t="n">
-        <v>60667.00953895666</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2495,22 +2093,15 @@
         <v>580</v>
       </c>
       <c r="G57" t="n">
-        <v>60667.00953895666</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2532,22 +2123,15 @@
         <v>297.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>60667.00953895666</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2569,22 +2153,15 @@
         <v>318</v>
       </c>
       <c r="G59" t="n">
-        <v>60667.00953895666</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2606,22 +2183,19 @@
         <v>318</v>
       </c>
       <c r="G60" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>130.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>130.9</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2643,22 +2217,23 @@
         <v>1381.9342</v>
       </c>
       <c r="G61" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>130.9</v>
+      </c>
+      <c r="I61" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,22 +2255,23 @@
         <v>2560</v>
       </c>
       <c r="G62" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>130.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2717,22 +2293,23 @@
         <v>3487.8555</v>
       </c>
       <c r="G63" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+        <v>130.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2754,22 +2331,23 @@
         <v>1741</v>
       </c>
       <c r="G64" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+        <v>130.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2791,22 +2369,23 @@
         <v>520.1559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>60667.00953895666</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+        <v>130.9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2828,22 +2407,23 @@
         <v>11678.8302</v>
       </c>
       <c r="G66" t="n">
-        <v>72345.83973895665</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+        <v>130.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2865,22 +2445,23 @@
         <v>1423</v>
       </c>
       <c r="G67" t="n">
-        <v>70922.83973895665</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+        <v>131.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2902,22 +2483,23 @@
         <v>2698.4998</v>
       </c>
       <c r="G68" t="n">
-        <v>73621.33953895666</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+        <v>130.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2939,22 +2521,23 @@
         <v>18.7178</v>
       </c>
       <c r="G69" t="n">
-        <v>73602.62173895666</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+        <v>130.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2976,22 +2559,23 @@
         <v>377.1131</v>
       </c>
       <c r="G70" t="n">
-        <v>73979.73483895666</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>130.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3013,22 +2597,23 @@
         <v>1913.574</v>
       </c>
       <c r="G71" t="n">
-        <v>73979.73483895666</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>131.4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3050,22 +2635,23 @@
         <v>7683.7774</v>
       </c>
       <c r="G72" t="n">
-        <v>81663.51223895667</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+        <v>131.4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3087,22 +2673,23 @@
         <v>503.3473</v>
       </c>
       <c r="G73" t="n">
-        <v>81663.51223895667</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+        <v>133</v>
+      </c>
+      <c r="I73" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,22 +2711,21 @@
         <v>2583.3514</v>
       </c>
       <c r="G74" t="n">
-        <v>79080.16083895667</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1.00416730328495</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3161,22 +2747,21 @@
         <v>1826.4118</v>
       </c>
       <c r="G75" t="n">
-        <v>79080.16083895667</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>133</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3198,22 +2783,15 @@
         <v>932.8915</v>
       </c>
       <c r="G76" t="n">
-        <v>80013.05233895667</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3235,22 +2813,15 @@
         <v>942.2826</v>
       </c>
       <c r="G77" t="n">
-        <v>79070.76973895666</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3272,22 +2843,15 @@
         <v>73</v>
       </c>
       <c r="G78" t="n">
-        <v>79143.76973895666</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3309,22 +2873,15 @@
         <v>1315.9999</v>
       </c>
       <c r="G79" t="n">
-        <v>77827.76983895666</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3346,20 +2903,15 @@
         <v>21.4507</v>
       </c>
       <c r="G80" t="n">
-        <v>77849.22053895667</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K80" t="n">
+        <v>1</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3381,18 +2933,15 @@
         <v>3714</v>
       </c>
       <c r="G81" t="n">
-        <v>74135.22053895667</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3414,18 +2963,15 @@
         <v>105</v>
       </c>
       <c r="G82" t="n">
-        <v>74135.22053895667</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3447,18 +2993,15 @@
         <v>528</v>
       </c>
       <c r="G83" t="n">
-        <v>73607.22053895667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3480,18 +3023,15 @@
         <v>959.7088</v>
       </c>
       <c r="G84" t="n">
-        <v>73607.22053895667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3513,18 +3053,15 @@
         <v>797.9964</v>
       </c>
       <c r="G85" t="n">
-        <v>74405.21693895667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3546,18 +3083,15 @@
         <v>331.4812</v>
       </c>
       <c r="G86" t="n">
-        <v>74073.73573895668</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3579,18 +3113,15 @@
         <v>578.7140000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>74652.44973895668</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3612,18 +3143,15 @@
         <v>3534.803</v>
       </c>
       <c r="G88" t="n">
-        <v>78187.25273895668</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3645,18 +3173,15 @@
         <v>200</v>
       </c>
       <c r="G89" t="n">
-        <v>78387.25273895668</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,18 +3203,15 @@
         <v>897.4962</v>
       </c>
       <c r="G90" t="n">
-        <v>77489.75653895669</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3711,18 +3233,15 @@
         <v>137.8499</v>
       </c>
       <c r="G91" t="n">
-        <v>77627.60643895669</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3744,18 +3263,15 @@
         <v>6023.5546</v>
       </c>
       <c r="G92" t="n">
-        <v>71604.05183895669</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3777,18 +3293,15 @@
         <v>1568</v>
       </c>
       <c r="G93" t="n">
-        <v>71604.05183895669</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3810,18 +3323,19 @@
         <v>2194.0995</v>
       </c>
       <c r="G94" t="n">
-        <v>71604.05183895669</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>130.2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>130.2</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3843,18 +3357,23 @@
         <v>99.9401</v>
       </c>
       <c r="G95" t="n">
-        <v>71504.11173895668</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>130.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3876,18 +3395,23 @@
         <v>0.0599</v>
       </c>
       <c r="G96" t="n">
-        <v>71504.11173895668</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I96" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3909,18 +3433,19 @@
         <v>410</v>
       </c>
       <c r="G97" t="n">
-        <v>71914.11173895668</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="I97" t="n">
+        <v>130</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3942,18 +3467,23 @@
         <v>410</v>
       </c>
       <c r="G98" t="n">
-        <v>71914.11173895668</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="I98" t="n">
+        <v>130</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3975,18 +3505,23 @@
         <v>837.0381</v>
       </c>
       <c r="G99" t="n">
-        <v>71914.11173895668</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="I99" t="n">
+        <v>130</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4008,18 +3543,23 @@
         <v>8586.6842</v>
       </c>
       <c r="G100" t="n">
-        <v>63327.42753895668</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="I100" t="n">
+        <v>130</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4041,18 +3581,23 @@
         <v>735.0214</v>
       </c>
       <c r="G101" t="n">
-        <v>64062.44893895667</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>130.8</v>
+      </c>
+      <c r="I101" t="n">
+        <v>130</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,18 +3619,23 @@
         <v>1197.3591</v>
       </c>
       <c r="G102" t="n">
-        <v>62865.08983895667</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>131.7</v>
+      </c>
+      <c r="I102" t="n">
+        <v>130</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4107,18 +3657,23 @@
         <v>1462</v>
       </c>
       <c r="G103" t="n">
-        <v>61403.08983895667</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>130.6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>130</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4140,18 +3695,23 @@
         <v>791.1772999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>60611.91253895667</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>130.3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>130</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4173,18 +3733,23 @@
         <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>61011.91253895667</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>130.2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>130</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4206,18 +3771,23 @@
         <v>232</v>
       </c>
       <c r="G106" t="n">
-        <v>60779.91253895667</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>131.2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>130</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4239,18 +3809,23 @@
         <v>4.6284</v>
       </c>
       <c r="G107" t="n">
-        <v>60775.28413895667</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>130.7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>130</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3847,23 @@
         <v>12429.8914</v>
       </c>
       <c r="G108" t="n">
-        <v>48345.39273895667</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>130.1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>130</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4305,18 +3885,23 @@
         <v>1251.3234</v>
       </c>
       <c r="G109" t="n">
-        <v>49596.71613895667</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>129.1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>130</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4338,18 +3923,23 @@
         <v>12721.979</v>
       </c>
       <c r="G110" t="n">
-        <v>62318.69513895667</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>131.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>130</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4371,18 +3961,23 @@
         <v>1021</v>
       </c>
       <c r="G111" t="n">
-        <v>63339.69513895667</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>131.3</v>
+      </c>
+      <c r="I111" t="n">
+        <v>130</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4404,18 +3999,23 @@
         <v>10579.7947</v>
       </c>
       <c r="G112" t="n">
-        <v>73919.48983895667</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>131.8</v>
+      </c>
+      <c r="I112" t="n">
+        <v>130</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4437,18 +4037,23 @@
         <v>2398</v>
       </c>
       <c r="G113" t="n">
-        <v>76317.48983895667</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="I113" t="n">
+        <v>130</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4470,18 +4075,21 @@
         <v>836</v>
       </c>
       <c r="G114" t="n">
-        <v>75481.48983895667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>130</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4503,18 +4111,21 @@
         <v>1324</v>
       </c>
       <c r="G115" t="n">
-        <v>76805.48983895667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>130</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4536,18 +4147,21 @@
         <v>1385</v>
       </c>
       <c r="G116" t="n">
-        <v>75420.48983895667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>130</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4569,18 +4183,21 @@
         <v>97</v>
       </c>
       <c r="G117" t="n">
-        <v>75323.48983895667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>130</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4602,18 +4219,21 @@
         <v>2782.2873</v>
       </c>
       <c r="G118" t="n">
-        <v>72541.20253895667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>130</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4635,18 +4255,21 @@
         <v>1355.4812</v>
       </c>
       <c r="G119" t="n">
-        <v>71185.72133895668</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>130</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4668,18 +4291,21 @@
         <v>307</v>
       </c>
       <c r="G120" t="n">
-        <v>70878.72133895668</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>130</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4701,18 +4327,23 @@
         <v>907</v>
       </c>
       <c r="G121" t="n">
-        <v>71785.72133895668</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>129.1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>130</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4734,18 +4365,21 @@
         <v>3215.8369</v>
       </c>
       <c r="G122" t="n">
-        <v>68569.88443895668</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>130</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4767,18 +4401,21 @@
         <v>6198.4276</v>
       </c>
       <c r="G123" t="n">
-        <v>62371.45683895668</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>130</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4800,18 +4437,21 @@
         <v>1199.1734</v>
       </c>
       <c r="G124" t="n">
-        <v>63570.63023895668</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>130</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4833,18 +4473,21 @@
         <v>251</v>
       </c>
       <c r="G125" t="n">
-        <v>63319.63023895668</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>130</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4866,18 +4509,21 @@
         <v>6891.4904</v>
       </c>
       <c r="G126" t="n">
-        <v>70211.12063895668</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>130</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4899,18 +4545,21 @@
         <v>4533.2154</v>
       </c>
       <c r="G127" t="n">
-        <v>74744.33603895668</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>130</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4932,18 +4581,21 @@
         <v>713.1129</v>
       </c>
       <c r="G128" t="n">
-        <v>74031.22313895669</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>130</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4965,18 +4617,21 @@
         <v>893.1391</v>
       </c>
       <c r="G129" t="n">
-        <v>74924.36223895669</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>130</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4998,18 +4653,21 @@
         <v>600</v>
       </c>
       <c r="G130" t="n">
-        <v>75524.36223895669</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>130</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5031,18 +4689,21 @@
         <v>4718.9427</v>
       </c>
       <c r="G131" t="n">
-        <v>80243.30493895669</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>130</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5064,18 +4725,21 @@
         <v>555.1665</v>
       </c>
       <c r="G132" t="n">
-        <v>80798.47143895669</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>130</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5097,18 +4761,21 @@
         <v>382.1146</v>
       </c>
       <c r="G133" t="n">
-        <v>81180.5860389567</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>130</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5130,18 +4797,21 @@
         <v>239.1717</v>
       </c>
       <c r="G134" t="n">
-        <v>81180.5860389567</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>130</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1.033461538461539</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5163,18 +4833,15 @@
         <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>80680.5860389567</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
